--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Entreprise</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>mauvaise lettre de motivation …</t>
+  </si>
+  <si>
+    <t>SKF</t>
+  </si>
+  <si>
+    <t>candidature spontanée</t>
+  </si>
+  <si>
+    <t>Florian Baract sussus</t>
+  </si>
+  <si>
+    <t>François Niarfeix via claire</t>
   </si>
 </sst>
 </file>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -499,6 +511,9 @@
       <c r="C5" s="1">
         <v>42100</v>
       </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -535,6 +550,9 @@
       <c r="C8" s="1">
         <v>42093</v>
       </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -559,6 +577,34 @@
       </c>
       <c r="F10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="2015" sheetId="1" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <webPublishing vml="1" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Entreprise</t>
   </si>
@@ -103,19 +104,148 @@
   </si>
   <si>
     <t>François Niarfeix via claire</t>
+  </si>
+  <si>
+    <t>Valeao</t>
+  </si>
+  <si>
+    <t>Medtech</t>
+  </si>
+  <si>
+    <t>A postuler</t>
+  </si>
+  <si>
+    <t>http://www.balyo.com/fr/Recrutement/Candidature-spontanee</t>
+  </si>
+  <si>
+    <t>http://www.arbor-technologies.com/contact/</t>
+  </si>
+  <si>
+    <t>http://mach4.fr/category/produits/</t>
+  </si>
+  <si>
+    <t>http://www.staubli.com/fr/</t>
+  </si>
+  <si>
+    <t>http://www.eos-innovation.eu/ContactFr/Index.sls</t>
+  </si>
+  <si>
+    <t>RECHERCHER SUR LINKDIN SI CONTACT ESME AVANT !!!!!</t>
+  </si>
+  <si>
+    <t>http://www.sileane.com/contact</t>
+  </si>
+  <si>
+    <t>recrutement@sileane.com</t>
+  </si>
+  <si>
+    <t>http://www.humarobotics.com/</t>
+  </si>
+  <si>
+    <t>http://www.sarrazin-technologies.com/contact/</t>
+  </si>
+  <si>
+    <t>http://www.tecdron.fr/en/contact-2/</t>
+  </si>
+  <si>
+    <t>recrutement@basystemes.fr</t>
+  </si>
+  <si>
+    <t>http://www.basystemes.com/recrutement/offres-demploi/</t>
+  </si>
+  <si>
+    <t>http://www.sellen-pharmacie.fr/contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renault </t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>Safran</t>
+  </si>
+  <si>
+    <t>Mise en œuvre gyrolaser</t>
+  </si>
+  <si>
+    <t>RÉGULATION D'UN ENSEMBLE PROPULSIF COMPOSÉ DE PLUSIEURS MOTEURS H/F</t>
+  </si>
+  <si>
+    <t>2015-40935 module poussée</t>
+  </si>
+  <si>
+    <t>Eosgen</t>
+  </si>
+  <si>
+    <t>Bus de terrain</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>p.maillet@medtechsurgical.com</t>
+  </si>
+  <si>
+    <t>Baylo</t>
+  </si>
+  <si>
+    <t>Candidature spontanée</t>
+  </si>
+  <si>
+    <t>Arbor technologies</t>
+  </si>
+  <si>
+    <t>En attente d'envoi</t>
+  </si>
+  <si>
+    <t>compliqué ..</t>
+  </si>
+  <si>
+    <t>Staubli</t>
+  </si>
+  <si>
+    <t>Candidature par mail contact sur site sans cv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF909090"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,14 +265,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -615,14 +754,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42375</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42375</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42375</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42375</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
+    <hyperlink ref="A24" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Entreprise</t>
   </si>
@@ -136,9 +136,6 @@
     <t>http://www.sileane.com/contact</t>
   </si>
   <si>
-    <t>recrutement@sileane.com</t>
-  </si>
-  <si>
     <t>http://www.humarobotics.com/</t>
   </si>
   <si>
@@ -196,16 +193,34 @@
     <t>Arbor technologies</t>
   </si>
   <si>
-    <t>En attente d'envoi</t>
-  </si>
-  <si>
-    <t>compliqué ..</t>
-  </si>
-  <si>
     <t>Staubli</t>
   </si>
   <si>
-    <t>Candidature par mail contact sur site sans cv</t>
+    <t>rh.faverges@staubli.com</t>
+  </si>
+  <si>
+    <t>MACH4</t>
+  </si>
+  <si>
+    <t>Candidature spontanée (FW dans l'objet ..)</t>
+  </si>
+  <si>
+    <t>Eos Innovation</t>
+  </si>
+  <si>
+    <t>Candidature spontanée (mail site .. Envoyé ?)</t>
+  </si>
+  <si>
+    <t>Siléane</t>
+  </si>
+  <si>
+    <t>BA Systèmes</t>
+  </si>
+  <si>
+    <t>Fybots</t>
+  </si>
+  <si>
+    <t>meneroud@fybots.com</t>
   </si>
 </sst>
 </file>
@@ -754,19 +769,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -797,7 +813,7 @@
         <v>42373</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -808,18 +824,18 @@
         <v>42374</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>42375</v>
@@ -828,39 +844,39 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>42375</v>
@@ -869,12 +885,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>42375</v>
@@ -883,12 +899,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>42375</v>
@@ -896,91 +912,144 @@
       <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42376</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42376</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42376</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42376</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42376</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId1"/>
     <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="C24" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
-    <hyperlink ref="A24" r:id="rId4"/>
+    <hyperlink ref="H15" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
+    <hyperlink ref="F15" r:id="rId4"/>
     <hyperlink ref="F3" r:id="rId5"/>
     <hyperlink ref="F9" r:id="rId6"/>
     <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="A21" r:id="rId11"/>
+    <hyperlink ref="A22" r:id="rId12"/>
+    <hyperlink ref="A23" r:id="rId13"/>
+    <hyperlink ref="A25" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -13,11 +13,12 @@
   </sheets>
   <calcPr calcId="125725"/>
   <webPublishing vml="1" allowPng="1" codePage="1252"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
   <si>
     <t>Entreprise</t>
   </si>
@@ -106,9 +107,6 @@
     <t>François Niarfeix via claire</t>
   </si>
   <si>
-    <t>Valeao</t>
-  </si>
-  <si>
     <t>Medtech</t>
   </si>
   <si>
@@ -221,13 +219,103 @@
   </si>
   <si>
     <t>meneroud@fybots.com</t>
+  </si>
+  <si>
+    <t>Candidature spontanée mauvais nom Lettre motivation …</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>yohan devulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Robot Swin</t>
+  </si>
+  <si>
+    <t>Réponse offre inégnieur mécatronique</t>
+  </si>
+  <si>
+    <t>Netatmo</t>
+  </si>
+  <si>
+    <t>Réponse Stage ingénieur électronique</t>
+  </si>
+  <si>
+    <t>Ekium</t>
+  </si>
+  <si>
+    <t>Réponse stage ingénieur mécatronique / automatisme</t>
+  </si>
+  <si>
+    <t>Djit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">réponse stage ingénieur électronique </t>
+  </si>
+  <si>
+    <t>Motor-e</t>
+  </si>
+  <si>
+    <t>réponse offre 1</t>
+  </si>
+  <si>
+    <t>AKKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">réponse INGÉNIEUR ROBOTIQUE / AUTOMATISME : DÉTECTION ET EVITEMENT D’OBSTACLES POUR UN DRONE AUTONOME </t>
+  </si>
+  <si>
+    <t>Valeo</t>
+  </si>
+  <si>
+    <t>cityzesciences</t>
+  </si>
+  <si>
+    <t>candidature spontanéée à M mach, attente réponse sinon ajutant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navya </t>
+  </si>
+  <si>
+    <t>(ajout d'un mec sur linkedin) + CONTACT@NAVYA.TECH</t>
+  </si>
+  <si>
+    <t>sens.se</t>
+  </si>
+  <si>
+    <t>Nabastag (jobs@sen.se)</t>
+  </si>
+  <si>
+    <t>Withings</t>
+  </si>
+  <si>
+    <t>Archos</t>
+  </si>
+  <si>
+    <t>medissimo (poissy)</t>
+  </si>
+  <si>
+    <t>awox</t>
+  </si>
+  <si>
+    <t>ubiant</t>
+  </si>
+  <si>
+    <t>ob'do</t>
+  </si>
+  <si>
+    <t>keecker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,15 +340,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF909090"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,13 +376,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -301,6 +393,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -347,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +479,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,6 +514,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,21 +690,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -633,7 +735,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -644,7 +746,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -655,7 +757,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -669,7 +771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -680,7 +782,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -694,7 +796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -708,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -719,7 +821,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -733,7 +835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -747,7 +849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -768,21 +870,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,10 +903,16 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -812,10 +920,13 @@
       <c r="C2" s="1">
         <v>42373</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -824,18 +935,18 @@
         <v>42374</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
       </c>
       <c r="C4" s="1">
         <v>42375</v>
@@ -844,222 +955,412 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="5" t="s">
-        <v>50</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>42375</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1">
         <v>42375</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>42375</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>42376</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="1">
         <v>42376</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>42376</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1">
         <v>42376</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1">
         <v>42376</v>
       </c>
+      <c r="E16" s="1">
+        <v>42377</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42380</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42379</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>46</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1"/>
     <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="H15" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
+    <hyperlink ref="I15" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
     <hyperlink ref="F15" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId5"/>
     <hyperlink ref="F9" r:id="rId6"/>
     <hyperlink ref="F10" r:id="rId7"/>
     <hyperlink ref="I11" r:id="rId8"/>
     <hyperlink ref="F13" r:id="rId9"/>
     <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="A21" r:id="rId11"/>
-    <hyperlink ref="A22" r:id="rId12"/>
-    <hyperlink ref="A23" r:id="rId13"/>
-    <hyperlink ref="A25" r:id="rId14"/>
+    <hyperlink ref="A29" r:id="rId11"/>
+    <hyperlink ref="A30" r:id="rId12"/>
+    <hyperlink ref="A31" r:id="rId13"/>
+    <hyperlink ref="A33" r:id="rId14"/>
     <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="A39" r:id="rId16" display="mailto:jobs@sen.se"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -13,12 +13,11 @@
   </sheets>
   <calcPr calcId="125725"/>
   <webPublishing vml="1" allowPng="1" codePage="1252"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>Entreprise</t>
   </si>
@@ -281,15 +280,9 @@
     <t xml:space="preserve">navya </t>
   </si>
   <si>
-    <t>(ajout d'un mec sur linkedin) + CONTACT@NAVYA.TECH</t>
-  </si>
-  <si>
     <t>sens.se</t>
   </si>
   <si>
-    <t>Nabastag (jobs@sen.se)</t>
-  </si>
-  <si>
     <t>Withings</t>
   </si>
   <si>
@@ -302,20 +295,44 @@
     <t>awox</t>
   </si>
   <si>
-    <t>ubiant</t>
-  </si>
-  <si>
-    <t>ob'do</t>
-  </si>
-  <si>
     <t>keecker</t>
+  </si>
+  <si>
+    <t>candidature Ferre likedin (autre possibilité : CONTACT@NAVYA.TECH)</t>
+  </si>
+  <si>
+    <t>Candidature spontannée sur site</t>
+  </si>
+  <si>
+    <t>jobs@archos.com</t>
+  </si>
+  <si>
+    <t>jobs@sen.se</t>
+  </si>
+  <si>
+    <t>Ubiant</t>
+  </si>
+  <si>
+    <t>Candidature spontanée sur site (pas de cv)</t>
+  </si>
+  <si>
+    <t>Ob'do</t>
+  </si>
+  <si>
+    <t>nb caractères très limité : demande de mail</t>
+  </si>
+  <si>
+    <t>iwanttowork@keecker.com</t>
+  </si>
+  <si>
+    <t>hr@awox.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,10 +496,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +530,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,21 +705,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -735,7 +750,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -746,7 +761,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -757,7 +772,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -771,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -782,7 +797,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -796,7 +811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -810,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -821,7 +836,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -835,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -849,7 +864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -870,21 +885,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -924,7 +939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -941,7 +956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -955,7 +970,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -966,7 +981,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>48</v>
       </c>
@@ -974,7 +989,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
@@ -982,7 +997,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1053,7 +1068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1070,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1087,7 +1102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1145,7 +1160,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1158,7 +1173,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1171,7 +1186,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1184,7 +1199,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1199,7 +1214,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1212,7 +1227,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1225,109 +1240,170 @@
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42380</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42380</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42380</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42380</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42380</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1342,25 +1418,29 @@
     <hyperlink ref="I11" r:id="rId8"/>
     <hyperlink ref="F13" r:id="rId9"/>
     <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="A29" r:id="rId11"/>
-    <hyperlink ref="A30" r:id="rId12"/>
-    <hyperlink ref="A31" r:id="rId13"/>
-    <hyperlink ref="A33" r:id="rId14"/>
+    <hyperlink ref="A35" r:id="rId11"/>
+    <hyperlink ref="A36" r:id="rId12"/>
+    <hyperlink ref="A37" r:id="rId13"/>
+    <hyperlink ref="A39" r:id="rId14"/>
     <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="A39" r:id="rId16" display="mailto:jobs@sen.se"/>
+    <hyperlink ref="A30" r:id="rId16" display="mailto:jobs@sen.se"/>
+    <hyperlink ref="I29" r:id="rId17"/>
+    <hyperlink ref="I30" r:id="rId18"/>
+    <hyperlink ref="I28" r:id="rId19"/>
+    <hyperlink ref="I31" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Entreprise</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Ubiant</t>
   </si>
   <si>
-    <t>Candidature spontanée sur site (pas de cv)</t>
-  </si>
-  <si>
     <t>Ob'do</t>
   </si>
   <si>
@@ -326,13 +323,22 @@
   </si>
   <si>
     <t>hr@awox.com</t>
+  </si>
+  <si>
+    <t>Candidature spontanée sur site + mail</t>
+  </si>
+  <si>
+    <t>saber.mansour@ubiant.com</t>
+  </si>
+  <si>
+    <t>transfert RH le 12/01/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,9 +502,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,6 +537,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,21 +713,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -750,7 +758,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -761,7 +769,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -772,7 +780,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -786,7 +794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -797,7 +805,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -811,7 +819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -825,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -836,7 +844,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -850,7 +858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -864,7 +872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -885,21 +893,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -939,7 +947,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -956,7 +964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -970,7 +978,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -981,7 +989,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>48</v>
       </c>
@@ -989,7 +997,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1085,7 +1093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1102,7 +1110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1160,7 +1168,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1173,7 +1181,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1186,7 +1194,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1199,7 +1207,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1214,7 +1222,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1227,7 +1235,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1237,10 +1245,12 @@
       <c r="C23" s="1">
         <v>42379</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1250,10 +1260,12 @@
       <c r="C24" s="1">
         <v>42380</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1266,25 +1278,28 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1">
-        <v>42380</v>
+        <v>42381</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
         <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
       </c>
       <c r="C27" s="1">
         <v>42380</v>
@@ -1292,7 +1307,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -1305,10 +1320,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1324,7 +1339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>87</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1353,57 +1368,52 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1428,19 +1438,20 @@
     <hyperlink ref="I30" r:id="rId18"/>
     <hyperlink ref="I28" r:id="rId19"/>
     <hyperlink ref="I31" r:id="rId20"/>
+    <hyperlink ref="I26" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -133,12 +133,6 @@
     <t>http://www.sileane.com/contact</t>
   </si>
   <si>
-    <t>http://www.humarobotics.com/</t>
-  </si>
-  <si>
-    <t>http://www.sarrazin-technologies.com/contact/</t>
-  </si>
-  <si>
     <t>http://www.tecdron.fr/en/contact-2/</t>
   </si>
   <si>
@@ -148,15 +142,9 @@
     <t>http://www.basystemes.com/recrutement/offres-demploi/</t>
   </si>
   <si>
-    <t>http://www.sellen-pharmacie.fr/contact</t>
-  </si>
-  <si>
     <t xml:space="preserve">Renault </t>
   </si>
   <si>
-    <t>Parrot</t>
-  </si>
-  <si>
     <t>Safran</t>
   </si>
   <si>
@@ -332,13 +320,25 @@
   </si>
   <si>
     <t>transfert RH le 12/01/2016</t>
+  </si>
+  <si>
+    <t>Segula</t>
+  </si>
+  <si>
+    <t>Reponse Stage ingénieur robotique / modules de transport H/F</t>
+  </si>
+  <si>
+    <t>Altran</t>
+  </si>
+  <si>
+    <t>Réponse : Robotique en milieu hostile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,10 +502,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +536,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,21 +711,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -758,7 +756,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -769,7 +767,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -780,7 +778,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -794,7 +792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -805,7 +803,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -819,7 +817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -833,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -844,7 +842,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -858,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -872,7 +870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -893,21 +891,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -927,15 +925,15 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -944,10 +942,10 @@
         <v>42373</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -958,18 +956,18 @@
         <v>42374</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>42375</v>
@@ -978,39 +976,39 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>42375</v>
@@ -1019,15 +1017,15 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>42375</v>
@@ -1036,15 +1034,15 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>42375</v>
@@ -1053,18 +1051,18 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>42376</v>
@@ -1073,15 +1071,15 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>42376</v>
@@ -1090,15 +1088,15 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>42376</v>
@@ -1107,35 +1105,35 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>42376</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>42376</v>
@@ -1144,21 +1142,21 @@
         <v>42377</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
         <v>66</v>
       </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
       <c r="I16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>42379</v>
@@ -1168,12 +1166,12 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1">
         <v>42379</v>
@@ -1181,12 +1179,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1">
         <v>42379</v>
@@ -1194,12 +1192,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1">
         <v>42379</v>
@@ -1207,27 +1205,27 @@
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1">
         <v>42379</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1">
         <v>42379</v>
@@ -1235,42 +1233,42 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1">
         <v>42379</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1">
         <v>42380</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
       </c>
       <c r="C25" s="1">
         <v>42380</v>
@@ -1278,12 +1276,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1">
         <v>42381</v>
@@ -1291,15 +1289,15 @@
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>42380</v>
@@ -1307,9 +1305,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1320,15 +1318,15 @@
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>42381</v>
@@ -1336,15 +1334,15 @@
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>42381</v>
@@ -1352,15 +1350,15 @@
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1">
         <v>42381</v>
@@ -1368,52 +1366,69 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="I31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1428,30 +1443,27 @@
     <hyperlink ref="I11" r:id="rId8"/>
     <hyperlink ref="F13" r:id="rId9"/>
     <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="A35" r:id="rId11"/>
-    <hyperlink ref="A36" r:id="rId12"/>
-    <hyperlink ref="A37" r:id="rId13"/>
-    <hyperlink ref="A39" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="A30" r:id="rId16" display="mailto:jobs@sen.se"/>
-    <hyperlink ref="I29" r:id="rId17"/>
-    <hyperlink ref="I30" r:id="rId18"/>
-    <hyperlink ref="I28" r:id="rId19"/>
-    <hyperlink ref="I31" r:id="rId20"/>
-    <hyperlink ref="I26" r:id="rId21"/>
+    <hyperlink ref="A39" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="A30" r:id="rId13" display="mailto:jobs@sen.se"/>
+    <hyperlink ref="I29" r:id="rId14"/>
+    <hyperlink ref="I30" r:id="rId15"/>
+    <hyperlink ref="I28" r:id="rId16"/>
+    <hyperlink ref="I31" r:id="rId17"/>
+    <hyperlink ref="I26" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>Entreprise</t>
   </si>
@@ -332,13 +332,22 @@
   </si>
   <si>
     <t>Réponse : Robotique en milieu hostile</t>
+  </si>
+  <si>
+    <t>Tecdron</t>
+  </si>
+  <si>
+    <t>cyberdroid</t>
+  </si>
+  <si>
+    <t>naio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,9 +511,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,6 +546,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,21 +722,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -756,7 +767,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -767,7 +778,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -778,7 +789,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -792,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -803,7 +814,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -817,7 +828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -831,7 +842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -842,7 +853,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -856,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -870,7 +881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -891,21 +902,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +942,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -945,7 +956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -962,7 +973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -976,7 +987,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -987,7 +998,10 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -995,7 +1009,10 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
@@ -1003,7 +1020,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1020,7 +1037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1057,7 +1074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1074,7 +1091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1091,7 +1108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1108,7 +1125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +1168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1166,7 +1183,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1179,7 +1196,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1192,7 +1209,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1202,10 +1219,12 @@
       <c r="C20" s="1">
         <v>42379</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>42382</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -1220,7 +1239,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1233,7 +1252,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1248,7 +1267,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1263,7 +1282,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -1276,7 +1295,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1305,7 +1324,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1321,7 +1340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1337,7 +1356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>83</v>
       </c>
@@ -1353,7 +1372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -1383,7 +1402,7 @@
       <c r="F32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -1397,37 +1416,81 @@
       <c r="F33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="3" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1443,7 +1506,7 @@
     <hyperlink ref="I11" r:id="rId8"/>
     <hyperlink ref="F13" r:id="rId9"/>
     <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="A39" r:id="rId11"/>
+    <hyperlink ref="A42" r:id="rId11"/>
     <hyperlink ref="F16" r:id="rId12"/>
     <hyperlink ref="A30" r:id="rId13" display="mailto:jobs@sen.se"/>
     <hyperlink ref="I29" r:id="rId14"/>
@@ -1458,12 +1521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>Entreprise</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Medtech</t>
   </si>
   <si>
-    <t>A postuler</t>
-  </si>
-  <si>
     <t>http://www.balyo.com/fr/Recrutement/Candidature-spontanee</t>
   </si>
   <si>
@@ -127,15 +124,9 @@
     <t>http://www.eos-innovation.eu/ContactFr/Index.sls</t>
   </si>
   <si>
-    <t>RECHERCHER SUR LINKDIN SI CONTACT ESME AVANT !!!!!</t>
-  </si>
-  <si>
     <t>http://www.sileane.com/contact</t>
   </si>
   <si>
-    <t>http://www.tecdron.fr/en/contact-2/</t>
-  </si>
-  <si>
     <t>recrutement@basystemes.fr</t>
   </si>
   <si>
@@ -341,13 +332,37 @@
   </si>
   <si>
     <t>naio</t>
+  </si>
+  <si>
+    <t>Thales</t>
+  </si>
+  <si>
+    <t>réponse Développement et innovation d'assemblage satellite par système robotique</t>
+  </si>
+  <si>
+    <t>Areva</t>
+  </si>
+  <si>
+    <t>STAGE: DÉVELOPPEMENT D'UN PROCÉDÉ ÉLECTROÉROSION</t>
+  </si>
+  <si>
+    <t>Plastic Omnium</t>
+  </si>
+  <si>
+    <t>Stage ingénieur mécatronique</t>
+  </si>
+  <si>
+    <t>Roboplanet</t>
+  </si>
+  <si>
+    <t>Ingénieur informatique industrielle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,14 +378,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -379,6 +386,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,10 +427,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -479,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,10 +524,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,7 +558,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -722,21 +733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -767,7 +778,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -778,7 +789,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -789,7 +800,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -803,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -814,7 +825,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -828,7 +839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -842,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -853,7 +864,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -867,7 +878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -881,7 +892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -902,21 +913,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,15 +947,15 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -953,10 +964,10 @@
         <v>42373</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -967,18 +978,18 @@
         <v>42374</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>42375</v>
@@ -987,170 +998,170 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>42375</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>42375</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>42375</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
         <v>42376</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>42376</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <v>42376</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>42376</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>42376</v>
@@ -1159,21 +1170,21 @@
         <v>42377</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
         <v>62</v>
       </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>42379</v>
@@ -1183,12 +1194,12 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
         <v>42379</v>
@@ -1196,12 +1207,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <v>42379</v>
@@ -1209,12 +1220,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1">
         <v>42379</v>
@@ -1224,27 +1235,27 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1">
         <v>42379</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1">
         <v>42379</v>
@@ -1252,42 +1263,42 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="1">
         <v>42379</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1">
         <v>42380</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1">
         <v>42380</v>
@@ -1295,12 +1306,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>42381</v>
@@ -1308,15 +1319,15 @@
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1">
         <v>42380</v>
@@ -1324,9 +1335,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1337,15 +1348,15 @@
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
         <v>42381</v>
@@ -1353,15 +1364,15 @@
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <v>42381</v>
@@ -1369,15 +1380,15 @@
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>42381</v>
@@ -1385,15 +1396,15 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1">
         <v>42381</v>
@@ -1402,12 +1413,12 @@
       <c r="F32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1">
         <v>42381</v>
@@ -1416,12 +1427,12 @@
       <c r="F33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
         <v>42382</v>
@@ -1430,12 +1441,12 @@
       <c r="F34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1">
         <v>42382</v>
@@ -1444,54 +1455,86 @@
       <c r="F35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <v>42382</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="1">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1506,27 +1549,26 @@
     <hyperlink ref="I11" r:id="rId8"/>
     <hyperlink ref="F13" r:id="rId9"/>
     <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="A42" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="A30" r:id="rId13" display="mailto:jobs@sen.se"/>
-    <hyperlink ref="I29" r:id="rId14"/>
-    <hyperlink ref="I30" r:id="rId15"/>
-    <hyperlink ref="I28" r:id="rId16"/>
-    <hyperlink ref="I31" r:id="rId17"/>
-    <hyperlink ref="I26" r:id="rId18"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="A30" r:id="rId12" display="mailto:jobs@sen.se"/>
+    <hyperlink ref="I29" r:id="rId13"/>
+    <hyperlink ref="I30" r:id="rId14"/>
+    <hyperlink ref="I28" r:id="rId15"/>
+    <hyperlink ref="I31" r:id="rId16"/>
+    <hyperlink ref="I26" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>Entreprise</t>
   </si>
@@ -356,13 +356,22 @@
   </si>
   <si>
     <t>Ingénieur informatique industrielle</t>
+  </si>
+  <si>
+    <t>Fanuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidature spontannée  </t>
+  </si>
+  <si>
+    <t>stephanie.engel@fanuc.eu ‎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,9 +533,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,6 +568,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,21 +744,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -778,7 +789,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -789,7 +800,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -800,7 +811,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -814,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -825,7 +836,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -839,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -853,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -864,7 +875,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -878,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -892,7 +903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -913,21 +924,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -967,7 +978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -984,7 +995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1065,7 +1076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1102,7 +1113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1119,7 +1130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1156,7 +1167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1194,7 +1205,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1207,7 +1218,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -1220,7 +1231,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1235,7 +1246,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1250,7 +1261,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1263,7 +1274,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1278,7 +1289,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1293,7 +1304,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1306,7 +1317,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1335,7 +1346,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1399,7 +1410,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -1413,7 +1424,7 @@
       <c r="F32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1427,7 +1438,7 @@
       <c r="F33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -1441,7 +1452,7 @@
       <c r="F34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1455,7 +1466,7 @@
       <c r="F35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1471,7 +1482,7 @@
       <c r="F36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>42382</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -1493,7 +1504,7 @@
         <v>42382</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -1504,7 +1515,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>111</v>
       </c>
@@ -1515,24 +1526,32 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
       <c r="C41" s="1">
         <v>42383</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -1556,19 +1575,20 @@
     <hyperlink ref="I28" r:id="rId15"/>
     <hyperlink ref="I31" r:id="rId16"/>
     <hyperlink ref="I26" r:id="rId17"/>
+    <hyperlink ref="I41" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t>Entreprise</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Staubli</t>
   </si>
   <si>
-    <t>rh.faverges@staubli.com</t>
-  </si>
-  <si>
     <t>MACH4</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Valeo</t>
   </si>
   <si>
-    <t>cityzesciences</t>
-  </si>
-  <si>
     <t>candidature spontanéée à M mach, attente réponse sinon ajutant</t>
   </si>
   <si>
@@ -365,13 +359,67 @@
   </si>
   <si>
     <t>stephanie.engel@fanuc.eu ‎</t>
+  </si>
+  <si>
+    <t>cityzensciences</t>
+  </si>
+  <si>
+    <t>Entretien</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>POTENTIEL</t>
+  </si>
+  <si>
+    <t>oet</t>
+  </si>
+  <si>
+    <t>vreynes@oet.fr</t>
+  </si>
+  <si>
+    <t>Stanley robotics</t>
+  </si>
+  <si>
+    <t>Laurent Georges</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>Systèmes de contrôle train d'atterissage</t>
+  </si>
+  <si>
+    <t>Limitations et Optimisation du filtre de kalman pour la navigation</t>
+  </si>
+  <si>
+    <t>RB3D</t>
+  </si>
+  <si>
+    <t>leo.amar@rb3d.com</t>
+  </si>
+  <si>
+    <t>Candidature spontannée</t>
+  </si>
+  <si>
+    <t>Bitmakers ?</t>
+  </si>
+  <si>
+    <t>Thierry Jamet</t>
+  </si>
+  <si>
+    <t>transfert RH le 19/01</t>
+  </si>
+  <si>
+    <t>Potentiel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,7 +493,32 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -501,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,10 +606,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,21 +815,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -789,7 +860,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -800,7 +871,7 @@
         <v>42092</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -811,7 +882,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -825,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -836,7 +907,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -850,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -864,7 +935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -875,7 +946,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -889,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -903,7 +974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -924,21 +995,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,18 +1027,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -974,11 +1046,8 @@
       <c r="C2" s="1">
         <v>42373</v>
       </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -991,11 +1060,11 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1008,43 +1077,75 @@
       <c r="E4" s="1">
         <v>42375</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42375</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>42375</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>42375</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>42375</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -1052,16 +1153,16 @@
       <c r="C9" s="1">
         <v>42375</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1069,302 +1170,343 @@
       <c r="C10" s="1">
         <v>42375</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
-        <v>42375</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>42376</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>42376</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>42376</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1">
         <v>42376</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>42376</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
+      <c r="E15" s="1">
+        <v>42377</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1">
-        <v>42376</v>
+        <v>42379</v>
       </c>
       <c r="E16" s="1">
-        <v>42377</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>42380</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1">
         <v>42379</v>
       </c>
       <c r="E17" s="1">
-        <v>42380</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42385</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1">
         <v>42379</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1">
         <v>42379</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>42382</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1">
         <v>42379</v>
       </c>
-      <c r="E20" s="1">
-        <v>42382</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1">
         <v>42379</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="1">
         <v>42379</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>78</v>
+      <c r="B23" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="1">
-        <v>42379</v>
+        <v>42380</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1">
         <v>42380</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42380</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="1">
-        <v>42380</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="1">
-        <v>42381</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>42380</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>42380</v>
+        <v>42381</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>82</v>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -1373,14 +1515,15 @@
         <v>42381</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>80</v>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
@@ -1388,29 +1531,37 @@
       <c r="C30" s="1">
         <v>42381</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>42387</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1">
         <v>42381</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>42389</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -1420,27 +1571,31 @@
       <c r="C32" s="1">
         <v>42381</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>100</v>
       </c>
       <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
         <v>101</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42381</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
@@ -1449,12 +1604,13 @@
         <v>42382</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1462,50 +1618,48 @@
       <c r="C35" s="1">
         <v>42382</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
       </c>
       <c r="C36" s="1">
         <v>42382</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="1">
         <v>42382</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="1">
-        <v>42382</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B39" t="s">
@@ -1514,8 +1668,14 @@
       <c r="C39" s="1">
         <v>42383</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>42387</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>111</v>
       </c>
@@ -1525,70 +1685,145 @@
       <c r="C40" s="1">
         <v>42383</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1">
-        <v>42383</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+        <v>42387</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42387</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42388</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42388</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42388</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>81</v>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F47:F1048576 F1:F45">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"POTENTIEL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"OUI"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="I15" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
-    <hyperlink ref="F15" r:id="rId4"/>
-    <hyperlink ref="I3" r:id="rId5"/>
-    <hyperlink ref="F9" r:id="rId6"/>
-    <hyperlink ref="F10" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="F13" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="F16" r:id="rId11"/>
-    <hyperlink ref="A30" r:id="rId12" display="mailto:jobs@sen.se"/>
-    <hyperlink ref="I29" r:id="rId13"/>
-    <hyperlink ref="I30" r:id="rId14"/>
-    <hyperlink ref="I28" r:id="rId15"/>
-    <hyperlink ref="I31" r:id="rId16"/>
-    <hyperlink ref="I26" r:id="rId17"/>
-    <hyperlink ref="I41" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId2"/>
+    <hyperlink ref="H14" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
+    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="H10" r:id="rId8" display="rh.faverges@staubli.com"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="A29" r:id="rId12" display="mailto:jobs@sen.se"/>
+    <hyperlink ref="H28" r:id="rId13"/>
+    <hyperlink ref="H29" r:id="rId14"/>
+    <hyperlink ref="H27" r:id="rId15"/>
+    <hyperlink ref="H30" r:id="rId16"/>
+    <hyperlink ref="H25" r:id="rId17"/>
+    <hyperlink ref="H40" r:id="rId18"/>
+    <hyperlink ref="H44" r:id="rId19" display="javascript: WebMail('vreynes@oet.fr','')"/>
+    <hyperlink ref="H43" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
   <si>
     <t>Entreprise</t>
   </si>
@@ -208,9 +208,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Robot Swin</t>
-  </si>
-  <si>
     <t>Réponse offre inégnieur mécatronique</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Valeo</t>
   </si>
   <si>
-    <t>candidature spontanéée à M mach, attente réponse sinon ajutant</t>
-  </si>
-  <si>
     <t xml:space="preserve">navya </t>
   </si>
   <si>
@@ -412,14 +406,89 @@
     <t>transfert RH le 19/01</t>
   </si>
   <si>
-    <t>Potentiel</t>
+    <t>transfert</t>
+  </si>
+  <si>
+    <t>candidature spontanéée à M mach + ajutant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertand </t>
+  </si>
+  <si>
+    <t>Renvoi mail relance</t>
+  </si>
+  <si>
+    <t>recrutement@fr.bertrandt.com</t>
+  </si>
+  <si>
+    <t>Bitmakers</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Avis</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Aldebaran</t>
+  </si>
+  <si>
+    <t>Stage FSR</t>
+  </si>
+  <si>
+    <t>~+</t>
+  </si>
+  <si>
+    <t>Robot Swim</t>
+  </si>
+  <si>
+    <t>SkF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidature stagiaire automatisme </t>
+  </si>
+  <si>
+    <t>Ausy</t>
+  </si>
+  <si>
+    <t>Stage pour ETIX</t>
+  </si>
+  <si>
+    <t>jai jamais répondu</t>
+  </si>
+  <si>
+    <t>Conception d'une veste informatisée modulaire (h/f)</t>
+  </si>
+  <si>
+    <t>Atos</t>
+  </si>
+  <si>
+    <t>Ingénieur électrotechnique</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>Conception Banc Electro Hydro</t>
+  </si>
+  <si>
+    <t>Etude de système électronique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,27 +511,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -470,30 +575,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="60 % - Accent4" xfId="5" builtinId="44"/>
+    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutre" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -518,6 +674,17 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -529,6 +696,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I54" totalsRowShown="0">
+  <autoFilter ref="A1:I54">
+    <filterColumn colId="8"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Entreprise" dataDxfId="5" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" name="offre"/>
+    <tableColumn id="3" name="date" dataDxfId="4"/>
+    <tableColumn id="4" name="relance"/>
+    <tableColumn id="5" name="reponse"/>
+    <tableColumn id="6" name="Entretien"/>
+    <tableColumn id="7" name="remarque "/>
+    <tableColumn id="8" name="contact" dataDxfId="3" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="9" name="Avis"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,21 +1183,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -1035,134 +1225,155 @@
       <c r="H1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="13">
+        <v>42379</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
         <v>42373</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C5" s="9">
         <v>42374</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="13">
         <v>42375</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13">
         <v>42375</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42375</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42375</v>
+      <c r="F6" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
         <v>42375</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <v>42375</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>42375</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1171,83 +1382,83 @@
         <v>42375</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
-        <v>42376</v>
+        <v>42375</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>42376</v>
+        <v>42375</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1">
         <v>42376</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1">
         <v>42376</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1255,213 +1466,229 @@
       <c r="C15" s="1">
         <v>42376</v>
       </c>
-      <c r="E15" s="1">
-        <v>42377</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42376</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="11">
+        <v>42376</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C18" s="11">
         <v>42379</v>
       </c>
-      <c r="E16" s="1">
-        <v>42380</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42379</v>
-      </c>
-      <c r="E17" s="1">
-        <v>42385</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1">
-        <v>42379</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="13">
         <v>42379</v>
       </c>
-      <c r="E19" s="1">
-        <v>42382</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>116</v>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13">
+        <v>42385</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1">
         <v>42379</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1">
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9">
         <v>42379</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9">
+        <v>42382</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="1">
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9">
         <v>42379</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1">
-        <v>42380</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>42379</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="1">
-        <v>42380</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="13">
+        <v>42379</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42380</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="1">
-        <v>42381</v>
-      </c>
-      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1">
         <v>42380</v>
@@ -1469,61 +1696,67 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
-        <v>42380</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>42381</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1">
-        <v>42381</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="21">
+        <v>42380</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>42381</v>
+        <v>42380</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
@@ -1531,86 +1764,98 @@
       <c r="C30" s="1">
         <v>42381</v>
       </c>
-      <c r="E30" s="1">
-        <v>42387</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>42381</v>
       </c>
-      <c r="E31" s="1">
-        <v>42389</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="H31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="13">
         <v>42381</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13">
+        <v>42387</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42382</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="11">
+        <v>42381</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="1">
-        <v>42382</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="9">
+        <v>42381</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1618,202 +1863,386 @@
       <c r="C35" s="1">
         <v>42382</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <v>42382</v>
       </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="A37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="9">
         <v>42382</v>
       </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1">
-        <v>42383</v>
+        <v>42382</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="1">
-        <v>42383</v>
-      </c>
-      <c r="E39" s="1">
-        <v>42387</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="9">
+        <v>42382</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
+      <c r="A40" t="s">
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1">
         <v>42383</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="A41" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="13">
+        <v>42383</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13">
         <v>42387</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="F41" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1">
-        <v>42387</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>42383</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42387</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="9">
+        <v>42387</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42395</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C46" s="1">
+        <v>42388</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="13">
+        <v>42388</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13">
+        <v>42388</v>
+      </c>
+      <c r="F48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="7">
+        <v>42025</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="19">
+        <v>42390</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="5"/>
+      <c r="I50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="7">
+        <v>42394</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="7">
+        <v>42395</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="7">
+        <v>42395</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="7">
+        <v>42395</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1">
-        <v>42388</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="1">
-        <v>42388</v>
-      </c>
-      <c r="E45" s="1">
-        <v>42388</v>
-      </c>
-      <c r="F45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>79</v>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F47:F1048576 F1:F45">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"POTENTIEL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"OUI"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$F$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1"/>
-    <hyperlink ref="G10" r:id="rId2"/>
-    <hyperlink ref="H14" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
-    <hyperlink ref="G14" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="H10" r:id="rId8" display="rh.faverges@staubli.com"/>
-    <hyperlink ref="G12" r:id="rId9"/>
-    <hyperlink ref="G13" r:id="rId10"/>
-    <hyperlink ref="G15" r:id="rId11"/>
-    <hyperlink ref="A29" r:id="rId12" display="mailto:jobs@sen.se"/>
-    <hyperlink ref="H28" r:id="rId13"/>
-    <hyperlink ref="H29" r:id="rId14"/>
-    <hyperlink ref="H27" r:id="rId15"/>
-    <hyperlink ref="H30" r:id="rId16"/>
-    <hyperlink ref="H25" r:id="rId17"/>
-    <hyperlink ref="H40" r:id="rId18"/>
-    <hyperlink ref="H44" r:id="rId19" display="javascript: WebMail('vreynes@oet.fr','')"/>
-    <hyperlink ref="H43" r:id="rId20"/>
+    <hyperlink ref="G13" r:id="rId1"/>
+    <hyperlink ref="G12" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3" tooltip="Postulez en ligne !" display="mailto:recrutement@basystemes.fr"/>
+    <hyperlink ref="G16" r:id="rId4"/>
+    <hyperlink ref="H5" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8" display="rh.faverges@staubli.com"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G15" r:id="rId10"/>
+    <hyperlink ref="G17" r:id="rId11"/>
+    <hyperlink ref="A31" r:id="rId12" display="mailto:jobs@sen.se"/>
+    <hyperlink ref="H30" r:id="rId13"/>
+    <hyperlink ref="H31" r:id="rId14"/>
+    <hyperlink ref="H29" r:id="rId15"/>
+    <hyperlink ref="H32" r:id="rId16"/>
+    <hyperlink ref="H27" r:id="rId17"/>
+    <hyperlink ref="H42" r:id="rId18"/>
+    <hyperlink ref="H47" r:id="rId19" display="javascript: WebMail('vreynes@oet.fr','')"/>
+    <hyperlink ref="H46" r:id="rId20"/>
+    <hyperlink ref="H49" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <tableParts count="1">
+    <tablePart r:id="rId23"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/offre de stage/postulation.xlsx
+++ b/offre de stage/postulation.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
     <sheet name="2016" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="2016 réponses" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <webPublishing vml="1" allowPng="1" codePage="1252"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="193">
   <si>
     <t>Entreprise</t>
   </si>
@@ -133,9 +133,6 @@
     <t>http://www.basystemes.com/recrutement/offres-demploi/</t>
   </si>
   <si>
-    <t xml:space="preserve">Renault </t>
-  </si>
-  <si>
     <t>Safran</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Fybots</t>
   </si>
   <si>
-    <t>meneroud@fybots.com</t>
-  </si>
-  <si>
     <t>Candidature spontanée mauvais nom Lettre motivation …</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>sens.se</t>
   </si>
   <si>
-    <t>Withings</t>
-  </si>
-  <si>
     <t>Archos</t>
   </si>
   <si>
@@ -397,12 +388,6 @@
     <t>Candidature spontannée</t>
   </si>
   <si>
-    <t>Bitmakers ?</t>
-  </si>
-  <si>
-    <t>Thierry Jamet</t>
-  </si>
-  <si>
     <t>transfert RH le 19/01</t>
   </si>
   <si>
@@ -482,13 +467,145 @@
   </si>
   <si>
     <t>Etude de système électronique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE </t>
+  </si>
+  <si>
+    <t>Offre intranet : simulation via bus ethernet</t>
+  </si>
+  <si>
+    <t>Offre rejetée</t>
+  </si>
+  <si>
+    <t>offre refusée</t>
+  </si>
+  <si>
+    <t>sensefly</t>
+  </si>
+  <si>
+    <t>Cnadature spontannée tp drone</t>
+  </si>
+  <si>
+    <t>offre  refusée</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>Altra Shenzhen</t>
+  </si>
+  <si>
+    <t>Candidature Thierry Jamet</t>
+  </si>
+  <si>
+    <t>EN COURS</t>
+  </si>
+  <si>
+    <t>Réponse</t>
+  </si>
+  <si>
+    <t>EN ATTENTE</t>
+  </si>
+  <si>
+    <t>date dernier contact</t>
+  </si>
+  <si>
+    <t>02/02/216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salaire </t>
+  </si>
+  <si>
+    <t>Embauche à la sortie</t>
+  </si>
+  <si>
+    <t>POSSIBLE</t>
+  </si>
+  <si>
+    <t>550 + 400 €</t>
+  </si>
+  <si>
+    <t>800 € + Bonus</t>
+  </si>
+  <si>
+    <t>550 € + 9€/j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offre  </t>
+  </si>
+  <si>
+    <t>soft (dev bus ethercat + simu nœud ethercat)</t>
+  </si>
+  <si>
+    <t>matlab (dev banc de test + caractérisation capteur)</t>
+  </si>
+  <si>
+    <t>soft (bas niveau + com avec ros)</t>
+  </si>
+  <si>
+    <t>hard + firmware</t>
+  </si>
+  <si>
+    <t>hard + un petit peu de firmware</t>
+  </si>
+  <si>
+    <t>hard (avec ou sans routage)</t>
+  </si>
+  <si>
+    <t>labview</t>
+  </si>
+  <si>
+    <t>cablage + matlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard/soft ? nouvelles lampes </t>
+  </si>
+  <si>
+    <t>Sujet</t>
+  </si>
+  <si>
+    <t>Lieu</t>
+  </si>
+  <si>
+    <t>Buc</t>
+  </si>
+  <si>
+    <t>Mairie d'issy</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Montpar</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Chine</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Sens Fly</t>
+  </si>
+  <si>
+    <t>Suisse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,12 +618,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -537,8 +648,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +726,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -590,54 +756,1013 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="60 % - Accent4" xfId="5" builtinId="44"/>
+    <cellStyle name="60 % - Accent5" xfId="6" builtinId="48"/>
+    <cellStyle name="Avertissement" xfId="7" builtinId="11"/>
     <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Neutre" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -685,6 +1810,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -699,20 +1860,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I54" totalsRowShown="0">
-  <autoFilter ref="A1:I54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I57" totalsRowShown="0">
+  <autoFilter ref="A1:I57">
     <filterColumn colId="8"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Entreprise" dataDxfId="5" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="1" name="Entreprise" dataDxfId="31" dataCellStyle="Lien hypertexte"/>
     <tableColumn id="2" name="offre"/>
-    <tableColumn id="3" name="date" dataDxfId="4"/>
+    <tableColumn id="3" name="date" dataDxfId="30"/>
     <tableColumn id="4" name="relance"/>
     <tableColumn id="5" name="reponse"/>
     <tableColumn id="6" name="Entretien"/>
     <tableColumn id="7" name="remarque "/>
-    <tableColumn id="8" name="contact" dataDxfId="3" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="8" name="contact" dataDxfId="29" dataCellStyle="Lien hypertexte"/>
     <tableColumn id="9" name="Avis"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:K18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <sortState ref="A2:K18">
+    <sortCondition ref="H2:H18"/>
+    <sortCondition sortBy="cellColor" ref="E2:E18" dxfId="7"/>
+    <sortCondition sortBy="cellColor" ref="E2:E18" dxfId="6"/>
+    <sortCondition ref="C2:C18"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Entreprise" dataDxfId="18" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" name="Offre  " dataDxfId="17"/>
+    <tableColumn id="3" name="date dernier contact" dataDxfId="16"/>
+    <tableColumn id="5" name="Entretien" dataDxfId="15"/>
+    <tableColumn id="6" name="Réponse" dataDxfId="14"/>
+    <tableColumn id="4" name="salaire " dataDxfId="13"/>
+    <tableColumn id="8" name="Embauche à la sortie" dataDxfId="12"/>
+    <tableColumn id="7" name="remarque " dataDxfId="11"/>
+    <tableColumn id="9" name="Avis" dataDxfId="10"/>
+    <tableColumn id="10" name="Sujet" dataDxfId="9"/>
+    <tableColumn id="11" name="Lieu" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1217,58 +2403,64 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>42379</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1277,106 +2469,112 @@
         <v>42373</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" hidden="1">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>42374</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>42375</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12">
         <v>42375</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>42375</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42375</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="8">
         <v>42375</v>
       </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42375</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>42375</v>
@@ -1385,15 +2583,15 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>42375</v>
@@ -1402,15 +2600,15 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>42375</v>
@@ -1419,15 +2617,15 @@
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
       </c>
       <c r="C13" s="1">
         <v>42376</v>
@@ -1436,15 +2634,15 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
       </c>
       <c r="C14" s="1">
         <v>42376</v>
@@ -1453,15 +2651,15 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>42376</v>
@@ -1470,15 +2668,15 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1">
         <v>42376</v>
@@ -1491,85 +2689,90 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="A17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15">
         <v>42376</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="15">
+        <v>42379</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="10">
         <v>42379</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="13">
-        <v>42379</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13">
-        <v>42385</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>114</v>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1">
         <v>42379</v>
@@ -1578,59 +2781,59 @@
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="8">
         <v>42379</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
         <v>42382</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>114</v>
+      <c r="F21" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
+      <c r="A22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8">
         <v>42379</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1">
         <v>42379</v>
@@ -1639,56 +2842,56 @@
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="A24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="10">
         <v>42379</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>114</v>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1">
         <v>42380</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1">
         <v>42380</v>
@@ -1697,49 +2900,50 @@
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1">
         <v>42381</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
+      <c r="A28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="23">
         <v>42380</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -1751,15 +2955,15 @@
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>42381</v>
@@ -1768,15 +2972,15 @@
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4" t="s">
-        <v>76</v>
+      <c r="A31" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1">
         <v>42381</v>
@@ -1785,67 +2989,70 @@
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="A32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="12">
         <v>42381</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13">
+      <c r="D32" s="11"/>
+      <c r="E32" s="12">
         <v>42387</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="15">
+        <v>42381</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
+      <c r="A34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="C34" s="8">
         <v>42381</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="9">
-        <v>42381</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
-        <v>45</v>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>19</v>
@@ -1853,12 +3060,12 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <v>42382</v>
@@ -1868,12 +3075,12 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>42382</v>
@@ -1883,19 +3090,19 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="9">
+    <row r="37" spans="1:9" hidden="1">
+      <c r="A37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8">
         <v>42382</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9" t="s">
-        <v>45</v>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>19</v>
@@ -1903,315 +3110,349 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1">
         <v>42382</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" hidden="1">
+      <c r="A39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="8">
+        <v>42382</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="9">
-        <v>42382</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
       </c>
       <c r="C40" s="1">
         <v>42383</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="10">
+        <v>42383</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="13">
-        <v>42383</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13">
-        <v>42387</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
       </c>
       <c r="C42" s="1">
         <v>42383</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1">
         <v>42387</v>
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="9">
+    <row r="44" spans="1:9" hidden="1">
+      <c r="A44" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="8">
         <v>42387</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1">
         <v>42395</v>
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1">
         <v>42388</v>
       </c>
       <c r="E46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="10">
+        <v>42388</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="6">
+        <v>42025</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="13">
-        <v>42388</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13">
-        <v>42388</v>
-      </c>
-      <c r="F48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="7">
-        <v>42025</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="5" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="21">
+        <v>42390</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="19">
-        <v>42390</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="5"/>
-      <c r="I50" t="s">
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="6">
+        <v>42394</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="7">
-        <v>42394</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="6">
+        <v>42395</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="77">
+        <v>42395</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="6">
+        <v>42395</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B55" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="7">
-        <v>42395</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="7">
-        <v>42395</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="C55" s="21">
+        <v>42396</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="7">
-        <v>42395</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
+      <c r="B56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
+      <c r="A57" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="21">
+        <v>42397</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"POTENTIEL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"OUI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2226,7 +3467,7 @@
     <hyperlink ref="H12" r:id="rId8" display="rh.faverges@staubli.com"/>
     <hyperlink ref="G14" r:id="rId9"/>
     <hyperlink ref="G15" r:id="rId10"/>
-    <hyperlink ref="G17" r:id="rId11"/>
+    <hyperlink ref="G17" r:id="rId11" display="meneroud@fybots.com"/>
     <hyperlink ref="A31" r:id="rId12" display="mailto:jobs@sen.se"/>
     <hyperlink ref="H30" r:id="rId13"/>
     <hyperlink ref="H31" r:id="rId14"/>
@@ -2248,13 +3489,618 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="38.25" thickBot="1">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="38">
+        <v>42402</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="39">
+        <v>550</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="28">
+        <v>42371</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="29">
+        <v>800</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A4" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="28">
+        <v>42396</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1460</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="28">
+        <v>42398</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="28">
+        <v>42402</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="28">
+        <v>42402</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A8" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="28">
+        <v>42402</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="28">
+        <v>42402</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="28">
+        <v>42405</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A11" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="85">
+        <v>1100</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A12" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="42">
+        <v>42379</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="43">
+        <v>800</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="74"/>
+    </row>
+    <row r="13" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A13" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="42">
+        <v>42401</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A14" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="45">
+        <v>42038</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="53">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="83">
+        <v>42390</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="86">
+        <v>700</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="71"/>
+      <c r="I15" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="31">
+        <v>42403</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="32">
+        <v>550</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="34">
+        <v>42375</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A18" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67">
+        <v>42406</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G12:G18">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+      <formula>"POSSIBLE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E18 D12:D18 G12:G18">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"OUI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E18 G12:G18">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E18">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+      <formula>"En ATTENTE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>